--- a/Grupo07/docs/lending_dictionary.xlsx
+++ b/Grupo07/docs/lending_dictionary.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cb947233478d2b5/Documentos/_IA/202601_ml_pucp_pregrado/trabajos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leydi\Documents\Machine-Learning-para-Finanzas_2026_0\Grupo07\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1AEB0A8D-B355-462D-B2BE-762BF4041787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50CECF3-3386-490C-B914-780F9CB7AAA9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11850705-2F58-43F2-978E-C4D16FD285E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AFCFCC4B-4962-4BBA-B06A-3AD0ECCA5973}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFCFCC4B-4962-4BBA-B06A-3AD0ECCA5973}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -231,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +244,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,11 +300,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -298,10 +309,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,248 +632,249 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.109375" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.08984375" defaultRowHeight="28.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="45.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>